--- a/data-raw/kalamkar.wheat.ears.xlsx
+++ b/data-raw/kalamkar.wheat.ears.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776DC423-2AE8-40E1-84C0-93E98AF08B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="444" windowWidth="11184" windowHeight="7872"/>
+    <workbookView xWindow="3540" yWindow="2500" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,14 +84,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -123,7 +132,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -368,14 +377,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>39</v>
       </c>
@@ -425,7 +434,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>24</v>
       </c>
@@ -475,7 +484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -525,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>29</v>
       </c>
@@ -575,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>27</v>
       </c>
@@ -625,7 +634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>29</v>
       </c>
@@ -675,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -725,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>22</v>
       </c>
@@ -775,7 +784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>25</v>
       </c>
@@ -825,7 +834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>23</v>
       </c>
@@ -875,7 +884,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>28</v>
       </c>
@@ -925,7 +934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>19</v>
       </c>
@@ -975,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1025,7 +1034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>27</v>
       </c>
@@ -1075,7 +1084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>32</v>
       </c>
@@ -1125,7 +1134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>19</v>
       </c>
@@ -1175,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>22</v>
       </c>
@@ -1225,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>12</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>36</v>
       </c>
@@ -1375,7 +1384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>26</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>38</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -1525,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1575,7 +1584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1675,7 +1684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>40</v>
       </c>
@@ -1725,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>15</v>
       </c>
@@ -1775,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1825,7 +1834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>23</v>
       </c>
@@ -1875,7 +1884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>15</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1975,7 +1984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>14</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>18</v>
       </c>
@@ -2075,7 +2084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>24</v>
       </c>
@@ -2125,7 +2134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>23</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>15</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>11</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -2325,7 +2334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -2375,7 +2384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>35</v>
       </c>
@@ -2475,7 +2484,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>17</v>
       </c>
@@ -2525,7 +2534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>22</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>15</v>
       </c>
@@ -2625,7 +2634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>23</v>
       </c>
@@ -2675,7 +2684,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>22</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>31</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>28</v>
       </c>
@@ -2825,7 +2834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>34</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>12</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -2975,7 +2984,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>31</v>
       </c>
@@ -3025,7 +3034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>8</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>28</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>21</v>
       </c>
@@ -3175,7 +3184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>49</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>25</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>23</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>14</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>20</v>
       </c>
@@ -3425,7 +3434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>23</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>25</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>35</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>22</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>34</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>36</v>
       </c>
@@ -3775,7 +3784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>10</v>
       </c>
@@ -3825,7 +3834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>26</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>27</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>15</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>31</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>18</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>22</v>
       </c>
@@ -4125,7 +4134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>24</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>19</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>22</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>19</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="15" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>32</v>
       </c>
